--- a/Mifos Automation Excels/Loan Product/2475-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-PERIODIC-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/2475-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-PERIODIC-Loanproduct.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ProductLoanInput" sheetId="6" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="73">
   <si>
     <t>productname</t>
   </si>
@@ -155,9 +155,6 @@
     <t>VariableInstallmentsMaximumGap</t>
   </si>
   <si>
-    <t>2475-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-PERIODIC</t>
-  </si>
-  <si>
     <t>accrualperiodic</t>
   </si>
   <si>
@@ -231,6 +228,12 @@
   </si>
   <si>
     <t>Overpayment Liability</t>
+  </si>
+  <si>
+    <t>2475-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-PERIODIC-1st</t>
+  </si>
+  <si>
+    <t>247e</t>
   </si>
 </sst>
 </file>
@@ -614,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -629,15 +632,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
-        <v>2475</v>
+      <c r="B2" s="6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -882,7 +885,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>6</v>
@@ -890,98 +893,98 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -994,7 +997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1009,7 +1012,7 @@
         <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
